--- a/doc/ITUB4cg_5anos.xlsx
+++ b/doc/ITUB4cg_5anos.xlsx
@@ -320,6 +320,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7799,6 +7802,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/ITUB4cg_5anos.xlsx
+++ b/doc/ITUB4cg_5anos.xlsx
@@ -328,9 +328,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$1243</c:f>
+              <c:f>Retornos!$D$2:$D$1242</c:f>
               <c:strCache>
-                <c:ptCount val="1242"/>
+                <c:ptCount val="1241"/>
                 <c:pt idx="0">
                   <c:v>05/2024</c:v>
                 </c:pt>
@@ -4053,19 +4053,16 @@
                 </c:pt>
                 <c:pt idx="1240">
                   <c:v>06/2019</c:v>
-                </c:pt>
-                <c:pt idx="1241">
-                  <c:v>05/2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$1243</c:f>
+              <c:f>Retornos!$B$2:$B$1242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1242"/>
+                <c:ptCount val="1241"/>
                 <c:pt idx="0">
                   <c:v>0.01041666666666674</c:v>
                 </c:pt>
@@ -7788,9 +7785,6 @@
                 </c:pt>
                 <c:pt idx="1240">
                   <c:v>0.001497005988024158</c:v>
-                </c:pt>
-                <c:pt idx="1241">
-                  <c:v>-0.002615844544095691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7810,9 +7804,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$1243</c:f>
+              <c:f>Retornos!$D$2:$D$1242</c:f>
               <c:strCache>
-                <c:ptCount val="1242"/>
+                <c:ptCount val="1241"/>
                 <c:pt idx="0">
                   <c:v>05/2024</c:v>
                 </c:pt>
@@ -11535,19 +11529,16 @@
                 </c:pt>
                 <c:pt idx="1240">
                   <c:v>06/2019</c:v>
-                </c:pt>
-                <c:pt idx="1241">
-                  <c:v>05/2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$1243</c:f>
+              <c:f>Retornos!$C$2:$C$1242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1242"/>
+                <c:ptCount val="1241"/>
                 <c:pt idx="0">
                   <c:v>-0.008668605590563927</c:v>
                 </c:pt>
@@ -15270,9 +15261,6 @@
                 </c:pt>
                 <c:pt idx="1240">
                   <c:v>-0.0001030609089972545</c:v>
-                </c:pt>
-                <c:pt idx="1241">
-                  <c:v>-0.004381419497829775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15684,6 +15672,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -33097,6 +33088,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
